--- a/REVER_DailyTracker_20200703.xlsx
+++ b/REVER_DailyTracker_20200703.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A6F0BE-6CB7-4865-B0D0-7BCE90324C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="70">
   <si>
     <t>Task</t>
   </si>
@@ -277,15 +271,24 @@
     <t>1.Correction at GRS_Details of SSC3 has been completed and tested for all SSC to get download, csv conversion and upload are 
 success.</t>
   </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Homac</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -536,7 +539,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -730,33 +733,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="G140" sqref="G139:G140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -777,7 +780,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -787,8 +790,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -800,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -811,10 +814,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -828,9 +831,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -844,9 +847,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -860,8 +863,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -878,19 +881,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -908,13 +911,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -928,7 +931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -942,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -950,7 +953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -958,12 +961,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -971,7 +974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -982,7 +985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -993,7 +996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1004,12 +1007,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1031,12 +1034,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1068,12 +1071,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1105,12 +1108,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1150,12 +1153,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1195,12 +1198,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1247,18 +1250,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1290,7 +1293,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1299,46 +1302,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1351,26 +1354,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1396,243 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6">
+        <v>44015</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1402,7 +1641,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1411,46 +1650,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1462,27 +1701,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1744,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1514,7 +1877,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1523,46 +1886,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1574,27 +1937,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1626,7 +1989,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1635,46 +1998,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1686,27 +2049,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1729,28 +2092,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1759,46 +2110,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1810,27 +2161,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +2204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1862,7 +2213,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1871,382 +2222,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200703.xlsx
+++ b/REVER_DailyTracker_20200703.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF602D80-5BED-4DAD-9776-08D118ACC19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -19,22 +25,16 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="72">
   <si>
     <t>Task</t>
   </si>
@@ -280,15 +280,21 @@
   <si>
     <t>wip</t>
   </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Modules - Best Denki, All Denka, Stream</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +315,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -387,10 +409,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -427,9 +452,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{1F127863-A938-4B46-8707-DF319E3B2F2E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,14 +766,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G135"/>
   <sheetViews>
@@ -1242,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1354,12 +1387,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1396,15 +1429,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="24">
+        <v>44015</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1468,11 +1511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1702,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1826,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1938,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -2050,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -2162,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>

--- a/REVER_DailyTracker_20200703.xlsx
+++ b/REVER_DailyTracker_20200703.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF602D80-5BED-4DAD-9776-08D118ACC19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B7E88-7CC3-48BF-ABD9-5B5BC3BBE358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -285,6 +291,12 @@
   </si>
   <si>
     <t>Modules - Best Denki, All Denka, Stream</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>PR Errror correction</t>
   </si>
 </sst>
 </file>
@@ -520,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -572,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -781,15 +793,15 @@
       <selection activeCell="G140" sqref="G139:G140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -824,7 +836,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -850,7 +862,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -882,7 +894,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -950,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -964,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -978,7 +990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -986,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1141,12 +1153,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1170,7 +1182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1260,7 +1272,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1283,15 +1295,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1391,19 +1403,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1429,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1519,15 +1531,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1637,19 +1649,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1678,9 +1690,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1753,15 +1771,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1877,15 +1895,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1989,15 +2007,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2101,15 +2119,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2213,15 +2231,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
